--- a/biology/Botanique/Mrs_Oakley-Fisher/Mrs_Oakley-Fisher.xlsx
+++ b/biology/Botanique/Mrs_Oakley-Fisher/Mrs_Oakley-Fisher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mrs Oakley-Fisher'[1] est un cultivar de rosier obtenu en Angleterre par Cecil Cant en 1921[2],[3].
+'Mrs Oakley-Fisher' est un cultivar de rosier obtenu en Angleterre par Cecil Cant en 1921,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé présente des fleurs simples (4-8 pétales) d'un jaune profond, devenant cuivré, aux remarquables étamines ambre[4] ; elles fleurissent en petits bouquets. La floraison est remontante et les fleurs sont très agréablement parfumées.
-Le buisson bien arrondi[5] s'élève à 90 cm (parfois plus) pour une largeur similaire[6]. Il a besoin de soleil pour bien se développer et le pied doit être protégé du froid en hiver. Il faut le tailler en fin d'hiver, à un tiers en région méditerranéenne et plus sous des climats continentaux[3]. Ses tiges sont rougeâtres et son feuillage, bronze[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé présente des fleurs simples (4-8 pétales) d'un jaune profond, devenant cuivré, aux remarquables étamines ambre ; elles fleurissent en petits bouquets. La floraison est remontante et les fleurs sont très agréablement parfumées.
+Le buisson bien arrondi s'élève à 90 cm (parfois plus) pour une largeur similaire. Il a besoin de soleil pour bien se développer et le pied doit être protégé du froid en hiver. Il faut le tailler en fin d'hiver, à un tiers en région méditerranéenne et plus sous des climats continentaux. Ses tiges sont rougeâtres et son feuillage, bronze.
 On peut l'admirer notamment à la roseraie des terrasses de l'évêché de Blois.
 </t>
         </is>
